--- a/administrator/templates/templates/dmvt.xlsx
+++ b/administrator/templates/templates/dmvt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Mã sản phẩm(ma_vt)</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Giá bán(gia_ban_le)</t>
+  </si>
+  <si>
+    <t>Nhóm sản phẩm(ten_nvt)</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -375,9 +378,10 @@
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1">
+    <row r="1" spans="1:5" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,6 +394,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
